--- a/webapp/Files/upload/G25II.xlsx
+++ b/webapp/Files/upload/G25II.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="295">
   <si>
     <t>G25 第I部分 流动性覆盖率</t>
   </si>
@@ -3133,29 +3133,6 @@
     <t>无数据部分</t>
   </si>
   <si>
-    <t>NTE</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>|</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>朱张婷：现金</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>NTE</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>|</t>
     </r>
@@ -3298,7 +3275,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>朱张婷：证券</t>
+      <t>朱张婷：现金</t>
     </r>
     <r>
       <rPr>
@@ -3306,16 +3283,22 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>+(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>陆轶凡：现金</t>
+      <t>_A</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>朱张婷：证券</t>
     </r>
     <r>
       <rPr>
@@ -3323,16 +3306,16 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>吴玉姝：国债</t>
+      <t>+(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>陆轶凡：现金</t>
     </r>
     <r>
       <rPr>
@@ -3340,6 +3323,23 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>吴玉姝：国债</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
       <t>)/</t>
     </r>
     <r>
@@ -3350,6 +3350,14 @@
         <charset val="134"/>
       </rPr>
       <t>陆轶凡：证券</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>_B</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -3363,7 +3371,7 @@
     <numFmt numFmtId="177" formatCode="#,##0.00_);[Red]\(#,##0.00\)"/>
     <numFmt numFmtId="178" formatCode="0.0%"/>
     <numFmt numFmtId="179" formatCode="&quot;¥&quot;#,##0_);[Red]\(&quot;¥&quot;#,##0\)"/>
-    <numFmt numFmtId="181" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="180" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -4440,6 +4448,18 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="180" fontId="6" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="6" fillId="4" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="6" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -4492,18 +4512,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="181" fontId="6" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="181" fontId="6" fillId="4" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="181" fontId="6" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -4823,8 +4831,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:I190"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4834,22 +4842,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20.25">
-      <c r="A1" s="114" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="115"/>
-      <c r="C1" s="115"/>
-      <c r="D1" s="115"/>
-      <c r="E1" s="115"/>
+      <c r="A1" s="117" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="118"/>
+      <c r="C1" s="118"/>
+      <c r="D1" s="118"/>
+      <c r="E1" s="118"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
     <row r="2" spans="1:8" ht="14.25" thickBot="1">
-      <c r="A2" s="116" t="s">
+      <c r="A2" s="119" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="116"/>
+      <c r="B2" s="119"/>
       <c r="C2" s="9" t="s">
         <v>2</v>
       </c>
@@ -4862,22 +4870,22 @@
       <c r="H2" s="1"/>
     </row>
     <row r="3" spans="1:8" ht="14.25" thickBot="1">
-      <c r="A3" s="117" t="s">
+      <c r="A3" s="120" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="118"/>
-      <c r="C3" s="118"/>
-      <c r="D3" s="118"/>
-      <c r="E3" s="119"/>
+      <c r="B3" s="121"/>
+      <c r="C3" s="121"/>
+      <c r="D3" s="121"/>
+      <c r="E3" s="122"/>
       <c r="F3" s="10"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="120" t="s">
+      <c r="A4" s="123" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="122" t="s">
+      <c r="B4" s="125" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="11" t="s">
@@ -4889,17 +4897,17 @@
       <c r="E4" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="124" t="s">
+      <c r="F4" s="127" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="111" t="s">
+      <c r="G4" s="114" t="s">
         <v>11</v>
       </c>
       <c r="H4" s="1"/>
     </row>
     <row r="5" spans="1:8" ht="24.75" thickBot="1">
-      <c r="A5" s="121"/>
-      <c r="B5" s="123"/>
+      <c r="A5" s="124"/>
+      <c r="B5" s="126"/>
       <c r="C5" s="14" t="s">
         <v>12</v>
       </c>
@@ -4909,8 +4917,8 @@
       <c r="E5" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="124"/>
-      <c r="G5" s="111"/>
+      <c r="F5" s="127"/>
+      <c r="G5" s="114"/>
       <c r="H5" s="17"/>
     </row>
     <row r="6" spans="1:8">
@@ -4970,7 +4978,7 @@
         <v>20</v>
       </c>
       <c r="C9" s="33" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D9" s="34">
         <v>1</v>
@@ -4993,9 +5001,7 @@
       <c r="B10" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="33" t="s">
-        <v>291</v>
-      </c>
+      <c r="C10" s="33"/>
       <c r="D10" s="34">
         <v>1</v>
       </c>
@@ -5017,7 +5023,7 @@
       <c r="B11" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="125">
+      <c r="C11" s="111">
         <f>SUM(C12:C15)</f>
         <v>0</v>
       </c>
@@ -5038,8 +5044,8 @@
       <c r="B12" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="127" t="s">
-        <v>294</v>
+      <c r="C12" s="113" t="s">
+        <v>291</v>
       </c>
       <c r="D12" s="34">
         <v>1</v>
@@ -5063,7 +5069,7 @@
         <v>28</v>
       </c>
       <c r="C13" s="33" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="D13" s="34">
         <v>1</v>
@@ -5086,9 +5092,7 @@
       <c r="B14" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="110" t="s">
-        <v>293</v>
-      </c>
+      <c r="C14" s="110"/>
       <c r="D14" s="34">
         <v>1</v>
       </c>
@@ -5110,9 +5114,7 @@
       <c r="B15" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="33" t="s">
-        <v>291</v>
-      </c>
+      <c r="C15" s="33"/>
       <c r="D15" s="34">
         <v>1</v>
       </c>
@@ -5134,9 +5136,7 @@
       <c r="B16" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="33" t="s">
-        <v>291</v>
-      </c>
+      <c r="C16" s="33"/>
       <c r="D16" s="34">
         <v>1</v>
       </c>
@@ -5158,9 +5158,7 @@
       <c r="B17" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="C17" s="33" t="s">
-        <v>291</v>
-      </c>
+      <c r="C17" s="33"/>
       <c r="D17" s="34">
         <v>1</v>
       </c>
@@ -5182,7 +5180,7 @@
       <c r="B18" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="126">
+      <c r="C18" s="112">
         <f>SUM(C19:C21,C27)</f>
         <v>0</v>
       </c>
@@ -5201,9 +5199,7 @@
       <c r="B19" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="33" t="s">
-        <v>291</v>
-      </c>
+      <c r="C19" s="33"/>
       <c r="D19" s="34">
         <v>0.85</v>
       </c>
@@ -5218,7 +5214,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="24.75">
+    <row r="20" spans="1:8" ht="25.5">
       <c r="A20" s="22">
         <v>14</v>
       </c>
@@ -5226,7 +5222,7 @@
         <v>40</v>
       </c>
       <c r="C20" s="33" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D20" s="34">
         <v>0.85</v>
@@ -5263,9 +5259,7 @@
       <c r="B22" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="C22" s="33" t="s">
-        <v>291</v>
-      </c>
+      <c r="C22" s="33"/>
       <c r="D22" s="34">
         <v>0.85</v>
       </c>
@@ -5285,9 +5279,7 @@
       <c r="B23" s="46" t="s">
         <v>43</v>
       </c>
-      <c r="C23" s="33" t="s">
-        <v>291</v>
-      </c>
+      <c r="C23" s="33"/>
       <c r="D23" s="34">
         <v>0.85</v>
       </c>
@@ -5307,9 +5299,7 @@
       <c r="B24" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C24" s="33" t="s">
-        <v>291</v>
-      </c>
+      <c r="C24" s="33"/>
       <c r="D24" s="34">
         <v>0.85</v>
       </c>
@@ -5329,9 +5319,7 @@
       <c r="B25" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C25" s="33" t="s">
-        <v>291</v>
-      </c>
+      <c r="C25" s="33"/>
       <c r="D25" s="34">
         <v>0.85</v>
       </c>
@@ -5353,9 +5341,7 @@
       <c r="B26" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C26" s="33" t="s">
-        <v>291</v>
-      </c>
+      <c r="C26" s="33"/>
       <c r="D26" s="34">
         <v>0.85</v>
       </c>
@@ -8465,14 +8451,14 @@
       </c>
     </row>
     <row r="187" spans="1:6">
-      <c r="A187" s="112" t="s">
+      <c r="A187" s="115" t="s">
         <v>285</v>
       </c>
-      <c r="B187" s="112"/>
-      <c r="C187" s="113" t="s">
+      <c r="B187" s="115"/>
+      <c r="C187" s="116" t="s">
         <v>286</v>
       </c>
-      <c r="D187" s="113"/>
+      <c r="D187" s="116"/>
       <c r="E187" s="98" t="s">
         <v>287</v>
       </c>

--- a/webapp/Files/upload/G25II.xlsx
+++ b/webapp/Files/upload/G25II.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="75" windowWidth="14910" windowHeight="7365" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="75" windowWidth="14910" windowHeight="7365" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -4923,7 +4923,7 @@
   <dimension ref="A1:I190"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A1:J1048576"/>
+      <selection activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -6353,9 +6353,7 @@
         <v>125</v>
       </c>
       <c r="H70" s="39"/>
-      <c r="I70" s="8">
-        <v>461392.98</v>
-      </c>
+      <c r="I70" s="8"/>
     </row>
     <row r="71" spans="1:9">
       <c r="A71" s="22">
@@ -8611,8 +8609,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:I190"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -10042,9 +10040,7 @@
         <v>125</v>
       </c>
       <c r="H70" s="39"/>
-      <c r="I70" s="8">
-        <v>461392.98</v>
-      </c>
+      <c r="I70" s="8"/>
     </row>
     <row r="71" spans="1:9">
       <c r="A71" s="22">
@@ -12296,7 +12292,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>

--- a/webapp/Files/upload/G25II.xlsx
+++ b/webapp/Files/upload/G25II.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="297">
   <si>
     <t>G25 第I部分 流动性覆盖率</t>
   </si>
@@ -3449,6 +3449,29 @@
         <family val="1"/>
       </rPr>
       <t>_D</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>朱张婷：现金</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>_C</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -4923,7 +4946,7 @@
   <dimension ref="A1:I190"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+      <selection activeCell="A6" sqref="A1:J1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -6353,7 +6376,9 @@
         <v>125</v>
       </c>
       <c r="H70" s="39"/>
-      <c r="I70" s="8"/>
+      <c r="I70" s="8">
+        <v>461392.98</v>
+      </c>
     </row>
     <row r="71" spans="1:9">
       <c r="A71" s="22">
@@ -8610,7 +8635,7 @@
   <dimension ref="A1:I190"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -8756,7 +8781,7 @@
         <v>20</v>
       </c>
       <c r="C9" s="33" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="D9" s="34">
         <v>1</v>
@@ -10040,7 +10065,9 @@
         <v>125</v>
       </c>
       <c r="H70" s="39"/>
-      <c r="I70" s="8"/>
+      <c r="I70" s="8">
+        <v>461392.98</v>
+      </c>
     </row>
     <row r="71" spans="1:9">
       <c r="A71" s="22">
